--- a/r4-core-master/StructureDefinition-patientReligion.xlsx
+++ b/r4-core-master/StructureDefinition-patientReligion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="141">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Patient Religion</t>
+  </si>
+  <si>
+    <t>The Religion (registered in Austria) of a Patient</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -207,6 +210,9 @@
   </si>
   <si>
     <t>Religion code of the Patient</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -779,10 +785,10 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -842,10 +848,10 @@
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
@@ -853,7 +859,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -864,7 +870,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -876,13 +882,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -933,13 +939,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -948,16 +954,16 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -976,16 +982,16 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1023,19 +1029,19 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -1047,18 +1053,18 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1068,7 +1074,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -1080,13 +1086,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1137,7 +1143,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1149,7 +1155,7 @@
         <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>37</v>
@@ -1157,7 +1163,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1168,7 +1174,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1180,13 +1186,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1237,13 +1243,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1252,12 +1258,12 @@
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1280,13 +1286,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1325,19 +1331,19 @@
         <v>37</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1349,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>37</v>
@@ -1357,7 +1363,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1365,10 +1371,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1380,16 +1386,16 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1397,7 +1403,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>37</v>
@@ -1439,13 +1445,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1454,12 +1460,12 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1470,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1482,13 +1488,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1515,11 +1521,11 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>37</v>
@@ -1537,27 +1543,27 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1568,7 +1574,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1580,13 +1586,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1637,13 +1643,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1652,16 +1658,16 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -1680,16 +1686,16 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1727,19 +1733,19 @@
         <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1751,15 +1757,15 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1779,22 +1785,22 @@
         <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>37</v>
@@ -1843,7 +1849,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1855,15 +1861,15 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1874,7 +1880,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1886,13 +1892,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1943,13 +1949,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1958,16 +1964,16 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -1986,16 +1992,16 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2033,19 +2039,19 @@
         <v>37</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -2057,15 +2063,15 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2076,7 +2082,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -2085,29 +2091,29 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>37</v>
@@ -2149,27 +2155,27 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2180,7 +2186,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2189,19 +2195,19 @@
         <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2251,27 +2257,27 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2282,7 +2288,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2291,20 +2297,20 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>37</v>
@@ -2353,27 +2359,27 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2384,7 +2390,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2393,20 +2399,20 @@
         <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>37</v>
@@ -2455,27 +2461,27 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2486,7 +2492,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2495,22 +2501,22 @@
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>37</v>
@@ -2559,27 +2565,27 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2590,7 +2596,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2599,22 +2605,22 @@
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>37</v>
@@ -2663,30 +2669,30 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>37</v>
@@ -2696,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2708,13 +2714,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2765,7 +2771,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -2777,7 +2783,7 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>37</v>
@@ -2785,7 +2791,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2796,7 +2802,7 @@
         <v>38</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>37</v>
@@ -2808,13 +2814,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2865,13 +2871,13 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>37</v>
@@ -2880,12 +2886,12 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2908,13 +2914,13 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2953,19 +2959,19 @@
         <v>37</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
@@ -2977,7 +2983,7 @@
         <v>37</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>37</v>
@@ -2985,7 +2991,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2993,10 +2999,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>37</v>
@@ -3008,16 +3014,16 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3025,7 +3031,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>37</v>
@@ -3067,13 +3073,13 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>37</v>
@@ -3082,12 +3088,12 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3095,10 +3101,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
@@ -3110,13 +3116,13 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3167,27 +3173,27 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3195,10 +3201,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>37</v>
@@ -3210,16 +3216,16 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3227,7 +3233,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>37</v>
@@ -3269,13 +3275,13 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>37</v>
@@ -3284,12 +3290,12 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3312,13 +3318,13 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3369,22 +3375,22 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-master/StructureDefinition-patientReligion.xlsx
+++ b/r4-core-master/StructureDefinition-patientReligion.xlsx
@@ -259,7 +259,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://termpub.gesundheit.gv.at:443/TermBrowser/gui/main/main.zul?loadType=CodeSystem&amp;loadName=HL7.AT:ReligionAustria</t>
+    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/ValueSet/VS-ELGA-ReligiousAffiliation</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -633,7 +633,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.37890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
